--- a/project/gcx/gcx3.xlsx
+++ b/project/gcx/gcx3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repositories\mmhelper\project\gcx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CB0B1BF-C49D-470F-8467-EEEB45CDE9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB8369B-820D-4584-9B35-BA4CD80B12DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gcx3" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">group </t>
-  </si>
   <si>
     <t>age</t>
   </si>
@@ -48,11 +45,15 @@
   <si>
     <t>children</t>
   </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -997,40 +998,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I588"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
